--- a/medicine/Sexualité et sexologie/Perfect_Mothers/Perfect_Mothers.xlsx
+++ b/medicine/Sexualité et sexologie/Perfect_Mothers/Perfect_Mothers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Perfect Mothers (Adore ou Adoration, initialement intitulé Two Mothers) est un film franco-australien réalisé par Anne Fontaine, sorti en 2013. Le film est présenté sous le titre Two Mothers au Festival du film de Sundance 2013.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lil et Roz, la quarantaine épanouie, sont deux amies d'enfance résidant loin de la vie citadine dans une baie de la Nouvelle-Galles du Sud et très attachées l'une à l'autre. Lil a perdu son mari et a dû élever seule son fils Ian ; Roz vit de l'autre côté de la baie avec son époux Harold et leur fils Tom.
 À 19 ans, les deux garçons ont grandi et, tout comme leurs mères, sont très proches l'un de l'autre. Alors qu'Harold décide de prendre un poste de maître de conférences à l'université de Sydney, Roz et Tom ne veulent pas quitter leur domicile de toujours. Roz est ébranlée par la situation et le choix de son époux, qui, malheureux d'avoir échoué à la convaincre de déménager, finit par partir seul et la quitte. Ian, qui a grandi auprès de l'amie de sa mère, en est tombé profondément amoureux. Profitant d'un moment de questionnements intimes de Roz, il décide de faire un pas vers elle. Devenus amants, ils sont surpris par Tom, qui, perturbé par cette découverte, décide de se venger en séduisant à son tour la mère de Ian. Lil repousse dans un premier temps les avances de Tom, mais celui-ci lui révèle les rapports de son fils avec sa propre mère. Veuve et célibataire depuis des années, elle aussi a vu grandir Tom sans s'avouer que son regard sur lui avait progressivement changé. Mères et fils forment désormais respectivement un couple à quatre aux relations croisées.
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Titre original : Adoration ou Adore; initialement Two Mothers
@@ -564,7 +580,7 @@
 Budget :
 Pays d’origine :  France et  Australie
 Langue originale : anglais
-Format : 35 mm (format de tournage[1]) — DCP (Format de projection) — couleur — 2.35:1 (Scope) — son Dolby Digital
+Format : 35 mm (format de tournage) — DCP (Format de projection) — couleur — 2.35:1 (Scope) — son Dolby Digital
 Genre : drame
 Durée : 111 min
 Dates de sortie :
@@ -599,7 +615,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Naomi Watts (V. F. : Anne Consigny) : Lil
 Robin Wright (V. F. : Florence Pernel) : Roz
@@ -609,7 +627,7 @@
 Jessica Tovey (V. F. : Zoé Schellenberg) : Mary, jeune comédienne amoureuse de Tom
 Sophie Lowe (V. F. : Chloé Lambert) : Hannah, amoureuse de Ian
 Gary Sweet (V. F. : François Marthouret) : Saul, courtise Lil
-Source et légende : Version française (V. F.) sur AlloDoublage[2]</t>
+Source et légende : Version française (V. F.) sur AlloDoublage</t>
         </is>
       </c>
     </row>
@@ -637,9 +655,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le scénario de Perfect Mothers est basé sur la nouvelle de Doris Lessing, Les Grand-mères (The Grandmothers) parue originellement en 2003. Pour satisfaire aux contraintes du cinéma et de la production, quelques changements sont apportés par rapport au livre, en particulier en rajeunissant l'âge des protagonistes principales[3]). 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le scénario de Perfect Mothers est basé sur la nouvelle de Doris Lessing, Les Grand-mères (The Grandmothers) parue originellement en 2003. Pour satisfaire aux contraintes du cinéma et de la production, quelques changements sont apportés par rapport au livre, en particulier en rajeunissant l'âge des protagonistes principales). 
 Anne Fontaine, aidée de Christopher Hampton, adapte l'œuvre et décide de réaliser son premier film international — ne réussissant pas à l'adapter à un contexte français —, en soumettant le projet à Naomi Watts qui tourne alors The Impossible en 2011. Cette dernière accepte de figurer dans la distribution et le film peut trouver des financements internationaux pour devenir une coproduction franco-australienne.
 Les tournages extérieurs ont été réalisés en Nouvelle-Galles du Sud (Australie) : Shelly Beach (en), Seal Rocks, Sydney (et dans le quartier de Balmain pour les scènes au pub).
 </t>
@@ -670,9 +690,11 @@
           <t>Réception critique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour L'Express, contrairement à la présentation du film qui le qualifie de sulfureux ou dérangeant, la réalisation manque d'audace concluant avec ironie que « le film est aussi lisse qu'une toile cirée et ne se termine même pas en partouze[4] ». François Forestier dans Le Nouvel Observateur parle au contraire d'un film qui « navigue entre humour léger, gravité soudaine et horizons sublimes, d'une ode au bonheur. C’est sensuel, à rebrousse-poil de la morale conventionnelle[5] ». Enfin, Le Monde estime que le film arrive à trouver une bonne justesse de ton, ne relever ni de « l'accablement » ni du « réquisitoire » considérant que « la liberté de jugement que la réalisatrice laisse au spectateur embarrasse autant qu’elle passionne[6] ».
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour L'Express, contrairement à la présentation du film qui le qualifie de sulfureux ou dérangeant, la réalisation manque d'audace concluant avec ironie que « le film est aussi lisse qu'une toile cirée et ne se termine même pas en partouze ». François Forestier dans Le Nouvel Observateur parle au contraire d'un film qui « navigue entre humour léger, gravité soudaine et horizons sublimes, d'une ode au bonheur. C’est sensuel, à rebrousse-poil de la morale conventionnelle ». Enfin, Le Monde estime que le film arrive à trouver une bonne justesse de ton, ne relever ni de « l'accablement » ni du « réquisitoire » considérant que « la liberté de jugement que la réalisatrice laisse au spectateur embarrasse autant qu’elle passionne ».
 </t>
         </is>
       </c>
@@ -701,7 +723,9 @@
           <t>Nominations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Festival du film de Sundance 2013 : sélection hors compétition « Premieres »
 AACTA Awards 2014 :
